--- a/LH_TEMPLATES/LH_REVIEWS-TEMPLATE.xlsx
+++ b/LH_TEMPLATES/LH_REVIEWS-TEMPLATE.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="REVIEW-SHEET" sheetId="3" r:id="rId1"/>
+    <sheet name="VERSION-HISTORY" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -39,20 +40,47 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Reviewer verification</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Owner Status</t>
+  </si>
+  <si>
+    <t>Version number</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ahmed Abuzaid</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>intial version</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>status column and version history</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +104,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +143,26 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -147,52 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -250,23 +269,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,219 +280,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -499,23 +341,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:I12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B1:I12"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Reviewer" dataDxfId="6"/>
-    <tableColumn id="3" name="Version" dataDxfId="5"/>
-    <tableColumn id="4" name="Review Comments" dataDxfId="4"/>
-    <tableColumn id="5" name="Actions" dataDxfId="3"/>
-    <tableColumn id="6" name="Owner" dataDxfId="2"/>
-    <tableColumn id="7" name="Status" dataDxfId="1"/>
-    <tableColumn id="8" name="Reviewer verification" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,183 +609,249 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="H2:H12">
-      <formula1>"open,in progress,closed"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from list" sqref="I2:I12">
       <formula1>"open,closed"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from list" sqref="H2:H12">
+      <formula1>"open,in progress,closed,not applicable"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="23">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>